--- a/src/main/resources/LeadData.xlsx
+++ b/src/main/resources/LeadData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.vijaysingh.thakur\Documents\IDFC\SalesForceAutomationTest (3)\SalesForceAutomationTest\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.c.ravi\Documents\selenium\Selenium\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C58DF0-1B5E-44BD-B8F4-6371597C767F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD5C8A0-7179-4F37-955E-B4033C8F582F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,19 +449,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.1796875" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,12 +490,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -517,12 +517,12 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -544,12 +544,12 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>23</v>
@@ -573,12 +573,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>23</v>

--- a/src/main/resources/LeadData.xlsx
+++ b/src/main/resources/LeadData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.vijaysingh.thakur\Documents\IDFC\SalesForceAutomationTest (3)\Sample\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\IDFC_Salesforce_Automation_Test\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ECD82C-3D91-4DAD-B3B9-41592A471F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81ACC08-5E63-4DF6-9A5E-3B7EE5DFDC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>Scenario Name</t>
   </si>
@@ -36,27 +36,15 @@
     <t>Operations</t>
   </si>
   <si>
-    <t>Create NTB Lead</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Branch User</t>
-  </si>
-  <si>
-    <t>Kunal Bhatt</t>
-  </si>
-  <si>
     <t>Record Type</t>
   </si>
   <si>
     <t>Liabilities</t>
   </si>
   <si>
-    <t>searchUserAndLoginByBranchUser,createNTBLead</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -75,43 +63,88 @@
     <t>Thakur</t>
   </si>
   <si>
+    <t>Nitin Dange</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Business Loan</t>
+  </si>
+  <si>
+    <t>Channel Partner</t>
+  </si>
+  <si>
+    <t>99Acres</t>
+  </si>
+  <si>
+    <t>Create NTB Lead - Asset</t>
+  </si>
+  <si>
+    <t>createNTBLeadForAssetsChannelPartner</t>
+  </si>
+  <si>
+    <t>Create NTB Lead - Asset1</t>
+  </si>
+  <si>
+    <t>Create NTB Lead - Wealth Management</t>
+  </si>
+  <si>
+    <t>Wealth Management</t>
+  </si>
+  <si>
+    <t>Life Insurance</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Poonam</t>
+  </si>
+  <si>
+    <t>Create NTB Lead - Wealth Management 1</t>
+  </si>
+  <si>
+    <t>Create NTB Lead - Liabilities</t>
+  </si>
+  <si>
+    <t>Create NTB Lead - Liabilities1</t>
+  </si>
+  <si>
+    <t>createNTBLead</t>
+  </si>
+  <si>
+    <t>Global Search</t>
+  </si>
+  <si>
+    <t>searchUserLoginOnSetUpPage,createNTBLead</t>
+  </si>
+  <si>
+    <t>Vishakha Branch</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Nitin Dange</t>
-  </si>
-  <si>
-    <t>Assets</t>
-  </si>
-  <si>
-    <t>Business Loan</t>
-  </si>
-  <si>
-    <t>Channel Partner</t>
-  </si>
-  <si>
-    <t>99Acres</t>
-  </si>
-  <si>
-    <t>Create NTB Lead - Asset</t>
-  </si>
-  <si>
-    <t>createNTBLeadForAssetsChannelPartner</t>
-  </si>
-  <si>
-    <t>INCRED</t>
-  </si>
-  <si>
-    <t>Create NTB Lead - Asset1</t>
-  </si>
-  <si>
-    <t>Automation BOC User</t>
-  </si>
-  <si>
-    <t>Sample Login</t>
+    <t>Create ETB Lead - Email</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Omkar Yashwant Sanap</t>
+  </si>
+  <si>
+    <t>searchUserAndLoginByBranchOrBOCUser,createNTBLead</t>
+  </si>
+  <si>
+    <t>searchUserAndLoginByBranchOrBOCUser,selectAccount,createETBLead</t>
   </si>
   <si>
     <t>sampleLoginTest</t>
+  </si>
+  <si>
+    <t>Sample Test</t>
   </si>
 </sst>
 </file>
@@ -449,25 +482,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.1796875" customWidth="1"/>
     <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,155 +513,276 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" tooltip="Omkar Yashwant Sanap" display="https://idfcfirstbank--crmuat.lightning.force.com/lightning/r/0010T000004igYFQAY/view?2.fragment=" xr:uid="{8895EA79-591B-4D90-AF3F-8CF293AEC3CB}"/>
+    <hyperlink ref="E9" r:id="rId2" tooltip="Omkar Yashwant Sanap" display="https://idfcfirstbank--crmuat.lightning.force.com/lightning/r/0010T000004igYFQAY/view?2.fragment=" xr:uid="{A8D198C4-1330-4B4B-AD47-F7940A49A945}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>